--- a/Maryam File/Dealershipdata.xlsx
+++ b/Maryam File/Dealershipdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryamforoohi/DataClass/Car_Dealership/Maryam File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF91C9-34AF-E145-8DC3-B4ABC09A1AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DD408-D4FD-C248-A1B6-F312961D30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="720" windowWidth="25040" windowHeight="13120" xr2:uid="{78C1C635-269E-7B4D-B2A2-03A24C1EE455}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Alabama</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>$8.3B</t>
+  </si>
+  <si>
+    <t>$5B</t>
+  </si>
+  <si>
+    <t>$59.9B</t>
   </si>
 </sst>
 </file>
@@ -676,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE3AC3-2CA1-B24B-A82C-094027781C6B}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,8 +1279,11 @@
       <c r="C37" s="2">
         <v>2520.0168619999999</v>
       </c>
-      <c r="D37" t="s">
-        <v>90</v>
+      <c r="D37">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1286,6 +1295,12 @@
       </c>
       <c r="C38" s="2">
         <v>14159.623577</v>
+      </c>
+      <c r="D38">
+        <v>848</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
